--- a/legislator/property/output/normal/林鴻池_2013-12-12_財產申報表_tmp67ea1.xlsx
+++ b/legislator/property/output/normal/林鴻池_2013-12-12_財產申報表_tmp67ea1.xlsx
@@ -18,165 +18,201 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="84">
-  <si>
-    <t>土地坐落</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="96">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>新北市新店區青潭段楣子寮小段00970094地號</t>
+  </si>
+  <si>
+    <t>新北市新店區青潭段楣子寮小段00960002地號</t>
+  </si>
+  <si>
+    <t>新北市新店區青潭段楣子寮小段00970001地號</t>
+  </si>
+  <si>
+    <t>新北市新店區青潭段楣子寮小段00970002地號</t>
+  </si>
+  <si>
+    <t>新北市新店區青潭段楣子寮小段00970099地號</t>
+  </si>
+  <si>
+    <t>新北市新店區青潭段楣子寮小段00970100地號</t>
+  </si>
+  <si>
+    <t>新北市新店區青潭段楣子寮小段00970107地號</t>
+  </si>
+  <si>
+    <t>新北市板橋區海山段20970000地號</t>
+  </si>
+  <si>
+    <t>臺北市大安區學府段一小段03810000地號</t>
+  </si>
+  <si>
+    <t>臺北市大安區學府段一小段03810001地號</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>10000分之996</t>
+  </si>
+  <si>
+    <t>10000分之99.6</t>
+  </si>
+  <si>
+    <t>10000分之222</t>
+  </si>
+  <si>
+    <t>10000分之376</t>
+  </si>
+  <si>
+    <t>10000分之143</t>
+  </si>
+  <si>
+    <t>景玉鳳</t>
+  </si>
+  <si>
+    <t>林鴻池</t>
+  </si>
+  <si>
+    <t>79年04月25日</t>
+  </si>
+  <si>
+    <t>87年10月23日</t>
+  </si>
+  <si>
+    <t>80年11月15日</t>
+  </si>
+  <si>
+    <t>99年10月07日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2013-12-12</t>
+  </si>
+  <si>
+    <t>tmp67ea1</t>
+  </si>
+  <si>
+    <t>新北市新店區青潭段楣仔寮小段00780000建號(平台）</t>
+  </si>
+  <si>
+    <t>(買賣(平台)）</t>
+  </si>
+  <si>
+    <t>新北市板橋區海山段03471000建號(陽台）</t>
+  </si>
+  <si>
+    <t>新北市板橋區海山段03443000建號(本件為停車位）</t>
+  </si>
+  <si>
+    <t>臺北市大安區學府段一小段02607000建號(陽台）</t>
+  </si>
+  <si>
+    <t>臺北市大安區學府段一小段02608000建號(陽台）</t>
+  </si>
+  <si>
+    <t>臺北市大安區學府段一小段02640000建號(本件為停車位)</t>
+  </si>
+  <si>
+    <t>新北市板橋區海山段03468000建號(陽台（本件3468建號為板橋市海山段2097地號之地上建物取得價額已列於申報書第.二項不動產土地第10筆中合併計價)）</t>
+  </si>
+  <si>
+    <t>24分之1</t>
+  </si>
+  <si>
+    <t>100分之5</t>
+  </si>
+  <si>
+    <t>84年12月12日</t>
+  </si>
+  <si>
+    <t>80年11月18日</t>
+  </si>
+  <si>
+    <t>拍賣</t>
+  </si>
+  <si>
+    <t>(買賣(停車位)）</t>
+  </si>
+  <si>
+    <t>11067000(與第10筆土地合併計價）</t>
+  </si>
+  <si>
+    <t>廠牌型號</t>
+  </si>
+  <si>
+    <t>汽缸容量</t>
+  </si>
+  <si>
+    <t>所有人</t>
   </si>
   <si>
     <t>登記（取得）時間</t>
   </si>
   <si>
-    <t>登記（取得）原因</t>
+    <t>登記（取.得）原因</t>
   </si>
   <si>
     <t>取得價額</t>
   </si>
   <si>
-    <t>新北市新店區青潭段楣子寮小 段0097-0094地號</t>
-  </si>
-  <si>
-    <t>新北市新店區青潭段楣子寮小 段0096-0002地號</t>
-  </si>
-  <si>
-    <t>新北市新店區青潭段楣子寮小 段0097-0001地號</t>
-  </si>
-  <si>
-    <t>新北市新店區青潭段楣子寮小 段0097-0002地號</t>
-  </si>
-  <si>
-    <t>新北市新店區青潭段楣子寮小 段0097-0099地號</t>
-  </si>
-  <si>
-    <t>新北市新店區青潭段楣子寮小 段0097-0100地號</t>
-  </si>
-  <si>
-    <t>新北市新店區青潭段楣子寮小 段0097-0107地號</t>
-  </si>
-  <si>
-    <t>新北市板橋區海山段2097-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市大安區學府段一小段 0381-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市大安區學府段一小段 0381-0001 地號</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>10000分之 996</t>
-  </si>
-  <si>
-    <t>10000分之 99.6</t>
-  </si>
-  <si>
-    <t>10000分之 222</t>
-  </si>
-  <si>
-    <t>10000分之 376</t>
-  </si>
-  <si>
-    <t>10000分之 143</t>
-  </si>
-  <si>
-    <t>景玉鳳</t>
-  </si>
-  <si>
-    <t>林鴻池</t>
-  </si>
-  <si>
-    <t>79年04月 25日</t>
-  </si>
-  <si>
-    <t>87年10月 23日</t>
-  </si>
-  <si>
-    <t>80年11月 15日</t>
-  </si>
-  <si>
-    <t>99年10月 07日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>新北市新店區青潭段楣仔寮小段00780-000建號(平台）</t>
-  </si>
-  <si>
-    <t>79年04月25日</t>
-  </si>
-  <si>
-    <t>(買賣(平台)）</t>
-  </si>
-  <si>
-    <t>新北市板橋區海山段03471-000 建號(陽台）</t>
-  </si>
-  <si>
-    <t>新北市板橋區海山段03443-000 建號(本件為停車位）</t>
-  </si>
-  <si>
-    <t>臺北市大安區學府段一小段 02607-000建號(陽台）</t>
-  </si>
-  <si>
-    <t>臺北市大安區學府段一小段 02608-000建號(陽台）</t>
-  </si>
-  <si>
-    <t>臺北市大安區學府段一小段 02640 - 000建號(本件為停車位)</t>
-  </si>
-  <si>
-    <t>新北市板橋區海山段03468-000 建號(陽台（本件3468建號為 板橋市海山段2097地號之地上 建物，取得價額已列於申報書第. 二項不動產土地第10筆中合併 計價)）</t>
-  </si>
-  <si>
-    <t>24分之1</t>
-  </si>
-  <si>
-    <t>100分之5</t>
-  </si>
-  <si>
-    <t>84年12月 12日</t>
-  </si>
-  <si>
-    <t>80年11月 18日</t>
-  </si>
-  <si>
-    <t>拍賣</t>
-  </si>
-  <si>
-    <t>(買賣(停 車位)）</t>
-  </si>
-  <si>
-    <t>11，067，000(與 第10筆土地合 併計價）</t>
-  </si>
-  <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>登記（取.得）原因</t>
-  </si>
-  <si>
     <t>國瑞國產客貨車</t>
   </si>
   <si>
-    <t>93年09月 01日</t>
+    <t>93年09月01日</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -209,7 +245,7 @@
     <t>臺北縣板橋市農會</t>
   </si>
   <si>
-    <t>玉山商業銀行海山簡易型 分行</t>
+    <t>玉山商業銀行海山簡易型分行</t>
   </si>
   <si>
     <t>永豐商業銀行中崙分行</t>
@@ -251,7 +287,7 @@
     <t>南山好鑫動養老保險</t>
   </si>
   <si>
-    <t>新二十五年期增值分紅養老 壽險</t>
+    <t>新二十五年期增值分紅養老壽險</t>
   </si>
   <si>
     <t>南山全新增額養老壽險</t>
@@ -263,7 +299,7 @@
     <t>增額終身壽險（B型）</t>
   </si>
   <si>
-    <t>金彩3 0 6增額終身壽險</t>
+    <t>金彩306增額終身壽險</t>
   </si>
   <si>
     <t>新添采終身壽險</t>
@@ -628,13 +664,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -656,291 +692,543 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>163</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1340</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>137</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1340</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>1624</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1340</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>29</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1340</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>559</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1340</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>275</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1340</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" s="2">
         <v>18</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>133</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1340</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O8" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2">
         <v>1526</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1340</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O9" s="2">
         <v>20</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2">
         <v>656</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1340</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O10" s="2">
         <v>21</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2">
         <v>1526</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H11" s="2">
         <v>11067000</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1340</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O11" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2">
         <v>17</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1340</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O12" s="2">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -958,25 +1246,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1">
         <v>253.52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -984,25 +1272,25 @@
         <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2">
         <v>145.12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1010,25 +1298,25 @@
         <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2">
         <v>750.1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1036,25 +1324,25 @@
         <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2">
         <v>75.26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1062,25 +1350,25 @@
         <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C5" s="2">
         <v>84.58</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1088,25 +1376,25 @@
         <v>56</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C6" s="2">
         <v>522.84</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1114,25 +1402,25 @@
         <v>57</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C7" s="2">
         <v>112.04</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1150,22 +1438,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1173,22 +1461,22 @@
         <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2">
         <v>2694</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1206,19 +1494,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1226,16 +1514,16 @@
         <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2">
         <v>319</v>
@@ -1246,16 +1534,16 @@
         <v>83</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F3" s="2">
         <v>418757</v>
@@ -1266,16 +1554,16 @@
         <v>85</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F4" s="2">
         <v>69890</v>
@@ -1286,16 +1574,16 @@
         <v>86</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F5" s="2">
         <v>45159</v>
@@ -1306,16 +1594,16 @@
         <v>87</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="2">
         <v>7</v>
@@ -1326,16 +1614,16 @@
         <v>88</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F7" s="2">
         <v>84833</v>
@@ -1346,16 +1634,16 @@
         <v>89</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F8" s="2">
         <v>966393</v>
@@ -1366,16 +1654,16 @@
         <v>90</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F9" s="2">
         <v>67506</v>
@@ -1386,16 +1674,16 @@
         <v>91</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F10" s="2">
         <v>29000</v>
@@ -1406,16 +1694,16 @@
         <v>92</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2">
         <v>2277</v>
@@ -1426,16 +1714,16 @@
         <v>93</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F12" s="2">
         <v>798</v>
@@ -1446,16 +1734,16 @@
         <v>94</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F13" s="2">
         <v>1080</v>
@@ -1466,16 +1754,16 @@
         <v>95</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F14" s="2">
         <v>7500</v>
@@ -1486,16 +1774,16 @@
         <v>96</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F15" s="2">
         <v>198784</v>
@@ -1506,16 +1794,16 @@
         <v>97</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F16" s="2">
         <v>4027674</v>
@@ -1536,16 +1824,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1553,13 +1841,13 @@
         <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -1568,13 +1856,13 @@
         <v>131</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -1583,13 +1871,13 @@
         <v>132</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -1598,13 +1886,13 @@
         <v>133</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -1613,13 +1901,13 @@
         <v>134</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -1628,13 +1916,13 @@
         <v>135</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -1643,16 +1931,16 @@
         <v>136</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1660,13 +1948,13 @@
         <v>137</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E9" s="2"/>
     </row>

--- a/legislator/property/output/normal/林鴻池_2013-12-12_財產申報表_tmp67ea1.xlsx
+++ b/legislator/property/output/normal/林鴻池_2013-12-12_財產申報表_tmp67ea1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="81">
   <si>
     <t>name</t>
   </si>
@@ -62,7 +62,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>新北市新店區青潭段楣子寮小段00970094地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>新北市新店區青潭段楣子寮小段00960002地號</t>
@@ -92,67 +95,67 @@
     <t>臺北市大安區學府段一小段03810001地號</t>
   </si>
   <si>
+    <t>10000分之996</t>
+  </si>
+  <si>
+    <t>10000分之99.6</t>
+  </si>
+  <si>
+    <t>10000分之222</t>
+  </si>
+  <si>
+    <t>10000分之376</t>
+  </si>
+  <si>
+    <t>10000分之143</t>
+  </si>
+  <si>
+    <t>景玉鳳</t>
+  </si>
+  <si>
+    <t>林鴻池</t>
+  </si>
+  <si>
+    <t>79年04月25日</t>
+  </si>
+  <si>
+    <t>87年10月23日</t>
+  </si>
+  <si>
+    <t>80年11月15日</t>
+  </si>
+  <si>
+    <t>99年10月07日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2013-12-12</t>
+  </si>
+  <si>
+    <t>tmp67ea1</t>
+  </si>
+  <si>
+    <t>新北市板橋區海山段03471000建號(陽台）</t>
+  </si>
+  <si>
     <t>全部</t>
   </si>
   <si>
-    <t>10000分之996</t>
-  </si>
-  <si>
-    <t>10000分之99.6</t>
-  </si>
-  <si>
-    <t>10000分之222</t>
-  </si>
-  <si>
-    <t>10000分之376</t>
-  </si>
-  <si>
-    <t>10000分之143</t>
-  </si>
-  <si>
-    <t>景玉鳳</t>
-  </si>
-  <si>
-    <t>林鴻池</t>
-  </si>
-  <si>
-    <t>79年04月25日</t>
-  </si>
-  <si>
-    <t>87年10月23日</t>
-  </si>
-  <si>
-    <t>80年11月15日</t>
-  </si>
-  <si>
-    <t>99年10月07日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>land</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2013-12-12</t>
-  </si>
-  <si>
-    <t>tmp67ea1</t>
-  </si>
-  <si>
-    <t>新北市新店區青潭段楣仔寮小段00780000建號(平台）</t>
-  </si>
-  <si>
-    <t>(買賣(平台)）</t>
-  </si>
-  <si>
-    <t>新北市板橋區海山段03471000建號(陽台）</t>
+    <t>84年12月12日</t>
+  </si>
+  <si>
+    <t>拍賣</t>
   </si>
   <si>
     <t>新北市板橋區海山段03443000建號(本件為停車位）</t>
@@ -176,60 +179,30 @@
     <t>100分之5</t>
   </si>
   <si>
-    <t>84年12月12日</t>
-  </si>
-  <si>
     <t>80年11月18日</t>
   </si>
   <si>
-    <t>拍賣</t>
-  </si>
-  <si>
     <t>(買賣(停車位)）</t>
   </si>
   <si>
     <t>11067000(與第10筆土地合併計價）</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取.得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
     <t>國瑞國產客貨車</t>
   </si>
   <si>
     <t>93年09月01日</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>彰化商業銀行</t>
   </si>
   <si>
+    <t>支票存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>玉山商業銀行</t>
   </si>
   <si>
@@ -251,40 +224,22 @@
     <t>永豐商業銀行中崙分行</t>
   </si>
   <si>
-    <t>支票存款</t>
-  </si>
-  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
     <t>定期存款</t>
   </si>
   <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
-    <t>備註</t>
-  </si>
-  <si>
     <t>南山人壽</t>
   </si>
   <si>
+    <t>南山好鑫動養老保險</t>
+  </si>
+  <si>
     <t>國泰人壽</t>
   </si>
   <si>
     <t>全球人壽</t>
-  </si>
-  <si>
-    <t>南山好鑫動養老保險</t>
   </si>
   <si>
     <t>新二十五年期增值分紅養老壽險</t>
@@ -664,13 +619,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -713,19 +668,25 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>30</v>
@@ -758,18 +719,24 @@
         <v>41</v>
       </c>
       <c r="O2" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.0996</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>13.6452</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>137</v>
+        <v>1624</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>25</v>
@@ -805,18 +772,24 @@
         <v>41</v>
       </c>
       <c r="O3" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.0996</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>161.7504</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>1624</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>25</v>
@@ -852,21 +825,27 @@
         <v>41</v>
       </c>
       <c r="O4" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.0996</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>2.8884</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>29</v>
+        <v>559</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>30</v>
@@ -899,21 +878,27 @@
         <v>41</v>
       </c>
       <c r="O5" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.0099</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>5.5341</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>559</v>
+        <v>275</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>30</v>
@@ -946,18 +931,24 @@
         <v>41</v>
       </c>
       <c r="O6" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>18</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.0996</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>27.39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>275</v>
+        <v>133</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>25</v>
@@ -993,27 +984,33 @@
         <v>41</v>
       </c>
       <c r="O7" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>19</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.0996</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>13.2468</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>133</v>
+        <v>1526</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>36</v>
@@ -1040,27 +1037,33 @@
         <v>41</v>
       </c>
       <c r="O8" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>20</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.0222</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>33.8772</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>1526</v>
+        <v>656</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>36</v>
@@ -1087,33 +1090,39 @@
         <v>41</v>
       </c>
       <c r="O9" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>21</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.0376</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>24.6656</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="2">
-        <v>656</v>
+        <v>1526</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>37</v>
+      <c r="H10" s="2">
+        <v>11067000</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>38</v>
@@ -1134,33 +1143,39 @@
         <v>41</v>
       </c>
       <c r="O10" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>22</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.0143</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>21.8218</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2">
-        <v>1526</v>
+        <v>17</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="2">
-        <v>11067000</v>
+      <c r="H11" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>38</v>
@@ -1181,54 +1196,13 @@
         <v>41</v>
       </c>
       <c r="O11" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="1">
         <v>23</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="2">
-        <v>17</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M12" s="2">
-        <v>1340</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O12" s="2">
-        <v>23</v>
+      <c r="P11" s="2">
+        <v>0.0376</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0.6392</v>
       </c>
     </row>
   </sheetData>
@@ -1238,7 +1212,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1249,19 +1223,19 @@
         <v>42</v>
       </c>
       <c r="C1" s="1">
-        <v>253.52</v>
+        <v>145.12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>37</v>
@@ -1269,22 +1243,22 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2">
-        <v>145.12</v>
+        <v>750.1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>54</v>
@@ -1295,25 +1269,25 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
+        <v>54</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="2">
+        <v>75.26</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="2">
-        <v>750.1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>37</v>
@@ -1321,16 +1295,16 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2">
-        <v>75.26</v>
+        <v>84.58</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>31</v>
@@ -1347,16 +1321,16 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2">
-        <v>84.58</v>
+        <v>522.84</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>31</v>
@@ -1365,7 +1339,7 @@
         <v>53</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>37</v>
@@ -1373,54 +1347,28 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2">
-        <v>522.84</v>
+        <v>112.04</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>57</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="2">
-        <v>112.04</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1430,52 +1378,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2694</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>67</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2694</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1486,7 +1411,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1494,318 +1419,298 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>30</v>
+      </c>
+      <c r="F1" s="1">
+        <v>319</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F2" s="2">
-        <v>319</v>
+        <v>418757</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F3" s="2">
-        <v>418757</v>
+        <v>69890</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F4" s="2">
-        <v>69890</v>
+        <v>45159</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F5" s="2">
-        <v>45159</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F6" s="2">
-        <v>7</v>
+        <v>84833</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F7" s="2">
-        <v>84833</v>
+        <v>966393</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F8" s="2">
-        <v>966393</v>
+        <v>67506</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F9" s="2">
-        <v>67506</v>
+        <v>29000</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F10" s="2">
-        <v>29000</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F11" s="2">
-        <v>2277</v>
+        <v>798</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F12" s="2">
-        <v>798</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F13" s="2">
-        <v>1080</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F14" s="2">
-        <v>7500</v>
+        <v>198784</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F15" s="2">
-        <v>198784</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1">
-        <v>97</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="2">
         <v>4027674</v>
       </c>
     </row>
@@ -1816,7 +1721,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1824,27 +1729,25 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>84</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>30</v>
@@ -1853,110 +1756,95 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>137</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="2"/>
+      <c r="E8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/legislator/property/output/normal/林鴻池_2013-12-12_財產申報表_tmp67ea1.xlsx
+++ b/legislator/property/output/normal/林鴻池_2013-12-12_財產申報表_tmp67ea1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="82">
   <si>
     <t>name</t>
   </si>
@@ -68,6 +68,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>新北市新店區青潭段楣子寮小段00970094地號</t>
+  </si>
+  <si>
     <t>新北市新店區青潭段楣子寮小段00960002地號</t>
   </si>
   <si>
@@ -95,6 +98,9 @@
     <t>臺北市大安區學府段一小段03810001地號</t>
   </si>
   <si>
+    <t>全部</t>
+  </si>
+  <si>
     <t>10000分之996</t>
   </si>
   <si>
@@ -149,37 +155,34 @@
     <t>新北市板橋區海山段03471000建號(陽台）</t>
   </si>
   <si>
-    <t>全部</t>
+    <t>新北市板橋區海山段03443000建號(本件為停車位）</t>
+  </si>
+  <si>
+    <t>臺北市大安區學府段一小段02607000建號(陽台）</t>
+  </si>
+  <si>
+    <t>臺北市大安區學府段一小段02608000建號(陽台）</t>
+  </si>
+  <si>
+    <t>臺北市大安區學府段一小段02640000建號(本件為停車位)</t>
+  </si>
+  <si>
+    <t>新北市板橋區海山段03468000建號(陽台（本件3468建號為板橋市海山段2097地號之地上建物取得價額已列於申報書第.二項不動產土地第10筆中合併計價)）</t>
+  </si>
+  <si>
+    <t>24分之1</t>
+  </si>
+  <si>
+    <t>100分之5</t>
   </si>
   <si>
     <t>84年12月12日</t>
   </si>
   <si>
+    <t>80年11月18日</t>
+  </si>
+  <si>
     <t>拍賣</t>
-  </si>
-  <si>
-    <t>新北市板橋區海山段03443000建號(本件為停車位）</t>
-  </si>
-  <si>
-    <t>臺北市大安區學府段一小段02607000建號(陽台）</t>
-  </si>
-  <si>
-    <t>臺北市大安區學府段一小段02608000建號(陽台）</t>
-  </si>
-  <si>
-    <t>臺北市大安區學府段一小段02640000建號(本件為停車位)</t>
-  </si>
-  <si>
-    <t>新北市板橋區海山段03468000建號(陽台（本件3468建號為板橋市海山段2097地號之地上建物取得價額已列於申報書第.二項不動產土地第10筆中合併計價)）</t>
-  </si>
-  <si>
-    <t>24分之1</t>
-  </si>
-  <si>
-    <t>100分之5</t>
-  </si>
-  <si>
-    <t>80年11月18日</t>
   </si>
   <si>
     <t>(買賣(停車位)）</t>
@@ -619,7 +622,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -677,531 +680,584 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M2" s="2">
         <v>1340</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P2" s="2">
-        <v>0.0996</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="2">
-        <v>13.6452</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>1624</v>
+        <v>137</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M3" s="2">
         <v>1340</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P3" s="2">
         <v>0.0996</v>
       </c>
       <c r="Q3" s="2">
-        <v>161.7504</v>
+        <v>13.6452</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>29</v>
+        <v>1624</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M4" s="2">
         <v>1340</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P4" s="2">
         <v>0.0996</v>
       </c>
       <c r="Q4" s="2">
-        <v>2.8884</v>
+        <v>161.7504</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>559</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M5" s="2">
         <v>1340</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P5" s="2">
-        <v>0.0099</v>
+        <v>0.0996</v>
       </c>
       <c r="Q5" s="2">
-        <v>5.5341</v>
+        <v>2.8884</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>275</v>
+        <v>559</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M6" s="2">
         <v>1340</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O6" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P6" s="2">
-        <v>0.0996</v>
+        <v>0.0099</v>
       </c>
       <c r="Q6" s="2">
-        <v>27.39</v>
+        <v>5.5341</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>133</v>
+        <v>275</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M7" s="2">
         <v>1340</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O7" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P7" s="2">
         <v>0.0996</v>
       </c>
       <c r="Q7" s="2">
-        <v>13.2468</v>
+        <v>27.39</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>1526</v>
+        <v>133</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M8" s="2">
         <v>1340</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O8" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P8" s="2">
-        <v>0.0222</v>
+        <v>0.0996</v>
       </c>
       <c r="Q8" s="2">
-        <v>33.8772</v>
+        <v>13.2468</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>656</v>
+        <v>1526</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M9" s="2">
         <v>1340</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O9" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P9" s="2">
-        <v>0.0376</v>
+        <v>0.0222</v>
       </c>
       <c r="Q9" s="2">
-        <v>24.6656</v>
+        <v>33.8772</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>1526</v>
+        <v>656</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="2">
-        <v>11067000</v>
+        <v>38</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M10" s="2">
         <v>1340</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O10" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P10" s="2">
-        <v>0.0143</v>
+        <v>0.0376</v>
       </c>
       <c r="Q10" s="2">
-        <v>21.8218</v>
+        <v>24.6656</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="C11" s="2">
-        <v>17</v>
+        <v>1526</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="H11" s="2">
+        <v>11067000</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M11" s="2">
         <v>1340</v>
       </c>
       <c r="N11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O11" s="2">
+        <v>22</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0.0143</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>21.8218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="1">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="2">
+        <v>17</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O11" s="2">
+      <c r="K12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1340</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O12" s="2">
         <v>23</v>
       </c>
-      <c r="P11" s="2">
+      <c r="P12" s="2">
         <v>0.0376</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="Q12" s="2">
         <v>0.6392</v>
       </c>
     </row>
@@ -1212,163 +1268,378 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>52</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="2">
         <v>145.12</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>53</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="2">
-        <v>750.1</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1340</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" s="2">
+        <v>52</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>145.12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
+        <v>53</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="2">
+        <v>750.1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1340</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" s="2">
+        <v>53</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>31.2541666666667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
         <v>54</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="B4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="2">
         <v>75.26</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>55</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="2">
-        <v>84.58</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1340</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" s="2">
+        <v>54</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>3.763</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C5" s="2">
-        <v>522.84</v>
+        <v>84.58</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1340</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" s="2">
+        <v>55</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>84.58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
+        <v>56</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="2">
+        <v>522.84</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1340</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O6" s="2">
+        <v>56</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>21.785</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1">
+        <v>57</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="2">
+        <v>112.04</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
+      <c r="G7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1340</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O7" s="2">
         <v>57</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
         <v>112.04</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1378,30 +1649,53 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1">
         <v>2694</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>67</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>37</v>
+      <c r="C2" s="2">
+        <v>2694</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1411,7 +1705,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1419,16 +1713,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1">
         <v>319</v>
@@ -1436,281 +1730,301 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" s="2">
-        <v>418757</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F3" s="2">
-        <v>69890</v>
+        <v>418757</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F4" s="2">
-        <v>45159</v>
+        <v>69890</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F5" s="2">
-        <v>7</v>
+        <v>45159</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F6" s="2">
-        <v>84833</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7" s="2">
-        <v>966393</v>
+        <v>84833</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F8" s="2">
-        <v>67506</v>
+        <v>966393</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F9" s="2">
-        <v>29000</v>
+        <v>67506</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F10" s="2">
-        <v>2277</v>
+        <v>29000</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F11" s="2">
-        <v>798</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2">
-        <v>1080</v>
+        <v>798</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F13" s="2">
-        <v>7500</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F14" s="2">
-        <v>198784</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F15" s="2">
+        <v>198784</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>97</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="2">
         <v>4027674</v>
       </c>
     </row>
@@ -1721,7 +2035,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1729,64 +2043,64 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>73</v>
@@ -1795,56 +2109,71 @@
         <v>77</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>80</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>79</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>137</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/legislator/property/output/normal/林鴻池_2013-12-12_財產申報表_tmp67ea1.xlsx
+++ b/legislator/property/output/normal/林鴻池_2013-12-12_財產申報表_tmp67ea1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="83">
   <si>
     <t>name</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>11067000(與第10筆土地合併計價）</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>國瑞國產客貨車</t>
@@ -1649,38 +1652,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="1">
-        <v>2694</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2">
         <v>2694</v>
@@ -1689,13 +1713,34 @@
         <v>32</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>39</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1340</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="2">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1713,13 +1758,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>32</v>
@@ -1733,13 +1778,13 @@
         <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
@@ -1753,13 +1798,13 @@
         <v>83</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>32</v>
@@ -1773,13 +1818,13 @@
         <v>85</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>32</v>
@@ -1793,13 +1838,13 @@
         <v>86</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>32</v>
@@ -1813,13 +1858,13 @@
         <v>87</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>32</v>
@@ -1833,13 +1878,13 @@
         <v>88</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>32</v>
@@ -1853,13 +1898,13 @@
         <v>89</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>33</v>
@@ -1873,13 +1918,13 @@
         <v>90</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>33</v>
@@ -1893,13 +1938,13 @@
         <v>91</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>33</v>
@@ -1913,13 +1958,13 @@
         <v>92</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>33</v>
@@ -1933,13 +1978,13 @@
         <v>93</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>33</v>
@@ -1953,13 +1998,13 @@
         <v>94</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>33</v>
@@ -1973,13 +2018,13 @@
         <v>95</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>32</v>
@@ -1993,13 +2038,13 @@
         <v>96</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>33</v>
@@ -2013,13 +2058,13 @@
         <v>97</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>32</v>
@@ -2043,10 +2088,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>32</v>
@@ -2058,10 +2103,10 @@
         <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>32</v>
@@ -2073,10 +2118,10 @@
         <v>131</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>32</v>
@@ -2088,10 +2133,10 @@
         <v>132</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>33</v>
@@ -2103,10 +2148,10 @@
         <v>133</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>32</v>
@@ -2118,10 +2163,10 @@
         <v>134</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>33</v>
@@ -2133,10 +2178,10 @@
         <v>135</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>32</v>
@@ -2148,16 +2193,16 @@
         <v>136</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2165,10 +2210,10 @@
         <v>137</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>32</v>

--- a/legislator/property/output/normal/林鴻池_2013-12-12_財產申報表_tmp67ea1.xlsx
+++ b/legislator/property/output/normal/林鴻池_2013-12-12_財產申報表_tmp67ea1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="85">
   <si>
     <t>name</t>
   </si>
@@ -191,6 +191,9 @@
     <t>11067000(與第10筆土地合併計價）</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -198,6 +201,9 @@
   </si>
   <si>
     <t>93年09月01日</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>彰化商業銀行</t>
@@ -1353,7 +1359,7 @@
         <v>39</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>41</v>
@@ -1406,7 +1412,7 @@
         <v>39</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>41</v>
@@ -1459,7 +1465,7 @@
         <v>39</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>41</v>
@@ -1512,7 +1518,7 @@
         <v>39</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>41</v>
@@ -1565,7 +1571,7 @@
         <v>39</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>41</v>
@@ -1618,7 +1624,7 @@
         <v>56</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>41</v>
@@ -1663,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1704,7 +1710,7 @@
         <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2">
         <v>2694</v>
@@ -1713,7 +1719,7 @@
         <v>32</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>38</v>
@@ -1722,7 +1728,7 @@
         <v>39</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>41</v>
@@ -1758,13 +1764,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>32</v>
@@ -1778,13 +1784,13 @@
         <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
@@ -1798,13 +1804,13 @@
         <v>83</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>32</v>
@@ -1818,13 +1824,13 @@
         <v>85</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>32</v>
@@ -1838,13 +1844,13 @@
         <v>86</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>32</v>
@@ -1858,13 +1864,13 @@
         <v>87</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>32</v>
@@ -1878,13 +1884,13 @@
         <v>88</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>32</v>
@@ -1898,13 +1904,13 @@
         <v>89</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>33</v>
@@ -1918,13 +1924,13 @@
         <v>90</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>33</v>
@@ -1938,13 +1944,13 @@
         <v>91</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>33</v>
@@ -1958,13 +1964,13 @@
         <v>92</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>33</v>
@@ -1978,13 +1984,13 @@
         <v>93</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>33</v>
@@ -1998,13 +2004,13 @@
         <v>94</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>33</v>
@@ -2018,13 +2024,13 @@
         <v>95</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>32</v>
@@ -2038,13 +2044,13 @@
         <v>96</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>33</v>
@@ -2058,13 +2064,13 @@
         <v>97</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>32</v>
@@ -2088,10 +2094,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>32</v>
@@ -2103,10 +2109,10 @@
         <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>32</v>
@@ -2118,10 +2124,10 @@
         <v>131</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>32</v>
@@ -2133,10 +2139,10 @@
         <v>132</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>33</v>
@@ -2148,10 +2154,10 @@
         <v>133</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>32</v>
@@ -2163,10 +2169,10 @@
         <v>134</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>33</v>
@@ -2178,10 +2184,10 @@
         <v>135</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>32</v>
@@ -2193,16 +2199,16 @@
         <v>136</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2210,10 +2216,10 @@
         <v>137</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>32</v>

--- a/legislator/property/output/normal/林鴻池_2013-12-12_財產申報表_tmp67ea1.xlsx
+++ b/legislator/property/output/normal/林鴻池_2013-12-12_財產申報表_tmp67ea1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="89">
   <si>
     <t>name</t>
   </si>
@@ -206,40 +206,52 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>彰化商業銀行</t>
   </si>
   <si>
+    <t>玉山商業銀行</t>
+  </si>
+  <si>
+    <t>臺灣土地銀行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司</t>
+  </si>
+  <si>
+    <t>臺北縣板橋市農會</t>
+  </si>
+  <si>
+    <t>玉山商業銀行海山簡易型分行</t>
+  </si>
+  <si>
+    <t>永豐商業銀行中崙分行</t>
+  </si>
+  <si>
     <t>支票存款</t>
   </si>
   <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>定期存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>玉山商業銀行</t>
-  </si>
-  <si>
-    <t>臺灣土地銀行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司</t>
-  </si>
-  <si>
-    <t>臺北縣板橋市農會</t>
-  </si>
-  <si>
-    <t>玉山商業銀行海山簡易型分行</t>
-  </si>
-  <si>
-    <t>永豐商業銀行中崙分行</t>
-  </si>
-  <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
-    <t>定期存款</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>南山人壽</t>
@@ -1756,13 +1768,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>62</v>
       </c>
@@ -1773,24 +1785,45 @@
         <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="1">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
@@ -1798,19 +1831,40 @@
       <c r="F2" s="2">
         <v>319</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1340</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>83</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>32</v>
@@ -1818,19 +1872,40 @@
       <c r="F3" s="2">
         <v>418757</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1340</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>85</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>32</v>
@@ -1838,19 +1913,40 @@
       <c r="F4" s="2">
         <v>69890</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1340</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>86</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>32</v>
@@ -1858,19 +1954,40 @@
       <c r="F5" s="2">
         <v>45159</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1340</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>87</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>32</v>
@@ -1878,19 +1995,40 @@
       <c r="F6" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1340</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>88</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>32</v>
@@ -1898,19 +2036,40 @@
       <c r="F7" s="2">
         <v>84833</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1340</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>89</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>33</v>
@@ -1918,19 +2077,40 @@
       <c r="F8" s="2">
         <v>966393</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1340</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M8" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>90</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>33</v>
@@ -1938,19 +2118,40 @@
       <c r="F9" s="2">
         <v>67506</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1340</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M9" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>91</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>33</v>
@@ -1958,19 +2159,40 @@
       <c r="F10" s="2">
         <v>29000</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1340</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M10" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>92</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>33</v>
@@ -1978,19 +2200,40 @@
       <c r="F11" s="2">
         <v>2277</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1340</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>93</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>33</v>
@@ -1998,19 +2241,40 @@
       <c r="F12" s="2">
         <v>798</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1340</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>94</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>33</v>
@@ -2018,19 +2282,40 @@
       <c r="F13" s="2">
         <v>1080</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1340</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M13" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>95</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>32</v>
@@ -2038,19 +2323,40 @@
       <c r="F14" s="2">
         <v>7500</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1340</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M14" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>96</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>33</v>
@@ -2058,25 +2364,67 @@
       <c r="F15" s="2">
         <v>198784</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1340</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M15" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>97</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F16" s="2">
         <v>4027674</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1340</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M16" s="2">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2094,10 +2442,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>32</v>
@@ -2109,10 +2457,10 @@
         <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>32</v>
@@ -2124,10 +2472,10 @@
         <v>131</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>32</v>
@@ -2139,10 +2487,10 @@
         <v>132</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>33</v>
@@ -2154,10 +2502,10 @@
         <v>133</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>32</v>
@@ -2169,10 +2517,10 @@
         <v>134</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>33</v>
@@ -2184,10 +2532,10 @@
         <v>135</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>32</v>
@@ -2199,16 +2547,16 @@
         <v>136</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2216,10 +2564,10 @@
         <v>137</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>32</v>

--- a/legislator/property/output/normal/林鴻池_2013-12-12_財產申報表_tmp67ea1.xlsx
+++ b/legislator/property/output/normal/林鴻池_2013-12-12_財產申報表_tmp67ea1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="90">
   <si>
     <t>name</t>
   </si>
@@ -254,18 +254,21 @@
     <t>deposit</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>南山人壽</t>
   </si>
   <si>
+    <t>國泰人壽</t>
+  </si>
+  <si>
+    <t>全球人壽</t>
+  </si>
+  <si>
     <t>南山好鑫動養老保險</t>
   </si>
   <si>
-    <t>國泰人壽</t>
-  </si>
-  <si>
-    <t>全球人壽</t>
-  </si>
-  <si>
     <t>新二十五年期增值分紅養老壽險</t>
   </si>
   <si>
@@ -284,7 +287,7 @@
     <t>新添采終身壽險</t>
   </si>
   <si>
-    <t>被保險人有3人</t>
+    <t>insurance</t>
   </si>
 </sst>
 </file>
@@ -2434,70 +2437,150 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="E2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1340</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>131</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="E3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1340</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>132</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="E4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1340</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>133</v>
       </c>
@@ -2505,14 +2588,34 @@
         <v>80</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="E5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1340</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>134</v>
       </c>
@@ -2520,14 +2623,34 @@
         <v>81</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="E6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1340</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>135</v>
       </c>
@@ -2535,14 +2658,34 @@
         <v>81</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="E7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1340</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>136</v>
       </c>
@@ -2550,16 +2693,34 @@
         <v>81</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>89</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1340</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>137</v>
       </c>
@@ -2567,12 +2728,32 @@
         <v>80</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1340</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="2">
+        <v>137</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
